--- a/inst/extdata/ugabore.xlsx
+++ b/inst/extdata/ugabore.xlsx
@@ -12,7 +12,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="412" uniqueCount="412">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="410" uniqueCount="410">
   <si>
     <t xml:space="preserve">community</t>
   </si>
@@ -1242,12 +1242,6 @@
   </si>
   <si>
     <t xml:space="preserve">1514</t>
-  </si>
-  <si>
-    <t xml:space="preserve">1035</t>
-  </si>
-  <si>
-    <t xml:space="preserve">1140</t>
   </si>
 </sst>
 </file>
@@ -7053,52 +7047,6 @@
         <v>9.24</v>
       </c>
     </row>
-    <row r="173">
-      <c r="A173"/>
-      <c r="B173"/>
-      <c r="C173"/>
-      <c r="D173" t="s">
-        <v>410</v>
-      </c>
-      <c r="E173" s="1" t="n">
-        <v>44587</v>
-      </c>
-      <c r="F173" t="n">
-        <v>189</v>
-      </c>
-      <c r="G173" t="n">
-        <v>84.73</v>
-      </c>
-      <c r="H173" t="n">
-        <v>23.77</v>
-      </c>
-      <c r="I173" t="n">
-        <v>54.86</v>
-      </c>
-      <c r="J173" t="n">
-        <v>6.78</v>
-      </c>
-    </row>
-    <row r="174">
-      <c r="A174"/>
-      <c r="B174"/>
-      <c r="C174"/>
-      <c r="D174" t="s">
-        <v>411</v>
-      </c>
-      <c r="E174" s="1" t="n">
-        <v>45147</v>
-      </c>
-      <c r="F174" t="n">
-        <v>487</v>
-      </c>
-      <c r="G174" t="n">
-        <v>32.92</v>
-      </c>
-      <c r="H174"/>
-      <c r="I174"/>
-      <c r="J174"/>
-    </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait" horizontalDpi="300" verticalDpi="300" r:id="rId2"/>
